--- a/Bank/中医内科学/心/Bank_胸痹心痛.xlsx
+++ b/Bank/中医内科学/心/Bank_胸痹心痛.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliot/Desktop/wall/Bank/中医内科学/心/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="144">
   <si>
     <t>胸痹心痛与下列哪组脏腑功能失调有关</t>
   </si>
@@ -445,12 +456,18 @@
   </si>
   <si>
     <t>诊断：胸痹心痛。辨证：阳气亏虚，心脉瘀阻。分析：患者以胸膺部疼痛及憋闷不适为主要症状且持续6个月，故诊断为胸痹心痛。伴有明显的心悸、短气、乏力气虚的症状，并由于气损及阳而出现畏寒肢冷，头晕欲倒，脉迟等阳气虚弱之症。而胸痛憋闷、舌质紫等为瘀血之征。故本病辨证属阳气亏虚，心脉瘀阻。治法：益气温阳，活血化瘀方药：保元汤加味。党参30g黄英30g淫羊番i5g丹参15g白术12g补骨脂12g桂枝12g肉从蓉12g莪术12g赤芍12g红花9g甘草9g</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>case</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -484,7 +501,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -764,13 +781,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -796,7 +813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -822,7 +839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -848,7 +865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -874,7 +891,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>24</v>
       </c>
@@ -900,7 +917,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>29</v>
       </c>
@@ -916,6 +933,9 @@
       <c r="F6" t="s">
         <v>33</v>
       </c>
+      <c r="G6">
+        <v>40</v>
+      </c>
       <c r="H6" t="s">
         <v>5</v>
       </c>
@@ -926,7 +946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>34</v>
       </c>
@@ -942,6 +962,9 @@
       <c r="F7" t="s">
         <v>38</v>
       </c>
+      <c r="G7">
+        <v>40</v>
+      </c>
       <c r="H7" t="s">
         <v>5</v>
       </c>
@@ -952,7 +975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>39</v>
       </c>
@@ -968,6 +991,9 @@
       <c r="F8" t="s">
         <v>43</v>
       </c>
+      <c r="G8">
+        <v>40</v>
+      </c>
       <c r="H8" t="s">
         <v>5</v>
       </c>
@@ -978,7 +1004,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>44</v>
       </c>
@@ -994,6 +1020,9 @@
       <c r="F9" t="s">
         <v>48</v>
       </c>
+      <c r="G9">
+        <v>40</v>
+      </c>
       <c r="H9" t="s">
         <v>5</v>
       </c>
@@ -1004,7 +1033,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>50</v>
       </c>
@@ -1020,6 +1049,9 @@
       <c r="F10" t="s">
         <v>53</v>
       </c>
+      <c r="G10">
+        <v>40</v>
+      </c>
       <c r="H10" t="s">
         <v>5</v>
       </c>
@@ -1030,7 +1062,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>54</v>
       </c>
@@ -1046,6 +1078,9 @@
       <c r="F11" t="s">
         <v>41</v>
       </c>
+      <c r="G11">
+        <v>40</v>
+      </c>
       <c r="H11" t="s">
         <v>5</v>
       </c>
@@ -1056,7 +1091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>57</v>
       </c>
@@ -1072,6 +1107,9 @@
       <c r="F12" t="s">
         <v>61</v>
       </c>
+      <c r="G12">
+        <v>40</v>
+      </c>
       <c r="H12" t="s">
         <v>5</v>
       </c>
@@ -1082,7 +1120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>62</v>
       </c>
@@ -1098,6 +1136,9 @@
       <c r="F13" t="s">
         <v>66</v>
       </c>
+      <c r="G13">
+        <v>40</v>
+      </c>
       <c r="H13" t="s">
         <v>5</v>
       </c>
@@ -1108,7 +1149,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>67</v>
       </c>
@@ -1124,6 +1165,9 @@
       <c r="F14" t="s">
         <v>41</v>
       </c>
+      <c r="G14">
+        <v>40</v>
+      </c>
       <c r="H14" t="s">
         <v>5</v>
       </c>
@@ -1134,7 +1178,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>71</v>
       </c>
@@ -1150,6 +1194,9 @@
       <c r="F15" t="s">
         <v>74</v>
       </c>
+      <c r="G15">
+        <v>40</v>
+      </c>
       <c r="H15" t="s">
         <v>5</v>
       </c>
@@ -1160,7 +1207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>75</v>
       </c>
@@ -1176,6 +1223,9 @@
       <c r="F16" t="s">
         <v>79</v>
       </c>
+      <c r="G16">
+        <v>40</v>
+      </c>
       <c r="H16" t="s">
         <v>120</v>
       </c>
@@ -1189,7 +1239,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>82</v>
       </c>
@@ -1205,6 +1255,9 @@
       <c r="F17" t="s">
         <v>84</v>
       </c>
+      <c r="G17">
+        <v>40</v>
+      </c>
       <c r="H17" t="s">
         <v>120</v>
       </c>
@@ -1218,7 +1271,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>86</v>
       </c>
@@ -1234,6 +1287,9 @@
       <c r="F18" t="s">
         <v>90</v>
       </c>
+      <c r="G18">
+        <v>40</v>
+      </c>
       <c r="H18" t="s">
         <v>120</v>
       </c>
@@ -1247,7 +1303,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>92</v>
       </c>
@@ -1263,6 +1319,9 @@
       <c r="F19" t="s">
         <v>96</v>
       </c>
+      <c r="G19">
+        <v>40</v>
+      </c>
       <c r="H19" t="s">
         <v>120</v>
       </c>
@@ -1276,7 +1335,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>98</v>
       </c>
@@ -1292,6 +1351,9 @@
       <c r="F20" t="s">
         <v>101</v>
       </c>
+      <c r="G20">
+        <v>40</v>
+      </c>
       <c r="H20" t="s">
         <v>120</v>
       </c>
@@ -1305,7 +1367,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>103</v>
       </c>
@@ -1321,6 +1383,9 @@
       <c r="F21" t="s">
         <v>107</v>
       </c>
+      <c r="G21">
+        <v>40</v>
+      </c>
       <c r="H21" t="s">
         <v>120</v>
       </c>
@@ -1334,7 +1399,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>109</v>
       </c>
@@ -1350,6 +1415,9 @@
       <c r="F22" t="s">
         <v>113</v>
       </c>
+      <c r="G22">
+        <v>40</v>
+      </c>
       <c r="H22" t="s">
         <v>120</v>
       </c>
@@ -1363,7 +1431,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>114</v>
       </c>
@@ -1379,6 +1447,9 @@
       <c r="F23" t="s">
         <v>118</v>
       </c>
+      <c r="G23">
+        <v>40</v>
+      </c>
       <c r="H23" t="s">
         <v>120</v>
       </c>
@@ -1392,12 +1463,15 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>121</v>
       </c>
+      <c r="G24">
+        <v>40</v>
+      </c>
       <c r="H24" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -1406,12 +1480,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>122</v>
       </c>
+      <c r="G25">
+        <v>40</v>
+      </c>
       <c r="H25" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1420,10 +1497,13 @@
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>123</v>
       </c>
+      <c r="G26">
+        <v>40</v>
+      </c>
       <c r="H26" t="s">
         <v>128</v>
       </c>
@@ -1434,10 +1514,13 @@
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>124</v>
       </c>
+      <c r="G27">
+        <v>40</v>
+      </c>
       <c r="H27" t="s">
         <v>128</v>
       </c>
@@ -1448,10 +1531,13 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>125</v>
       </c>
+      <c r="G28">
+        <v>40</v>
+      </c>
       <c r="H28" t="s">
         <v>128</v>
       </c>
@@ -1462,10 +1548,13 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>126</v>
       </c>
+      <c r="G29">
+        <v>40</v>
+      </c>
       <c r="H29" t="s">
         <v>128</v>
       </c>
@@ -1476,12 +1565,15 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>127</v>
       </c>
+      <c r="G30">
+        <v>40</v>
+      </c>
       <c r="H30" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="J30">
         <v>1</v>
